--- a/biology/Botanique/Selenicereus/Selenicereus.xlsx
+++ b/biology/Botanique/Selenicereus/Selenicereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selenicereus est un genre botanique de la famille des Cactaceae. 
 C'est le genre des « Cierge de Sélène », du grec Séléné, déesse grecque de la lune et cereus, « cierge » en référence à l’ouverture nocturne des fleurs.
@@ -518,7 +530,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine exacte des Selenicereus est inconnue mais ils viennent probablement du Mexique, du Brésil ou des Grandes Antilles. Il a été naturalisé dans de nombreux pays tropicaux.
 Cette plante (cactus) était la préférée de la reine de France Marie-Antoinette.
@@ -550,16 +564,52 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Selenicereus se divise en 5 sections : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Selenicereus se divise en 5 sections : 
 Cryptocereus Alexander
 Deamia Britton &amp; Rose
 Marniera Backeb.
 Mediocactus Britton &amp; Rose
-Strophocactus Britton &amp; Rose
-Espèces
-Selenicereus atropilosus
+Strophocactus Britton &amp; Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Selenicereus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selenicereus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selenicereus atropilosus
 Selenicereus boeckmannii
 Selenicereus chontalensis'
 Selenicereus coniflorus (Weingart) Britt. et Rose
@@ -587,31 +637,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Selenicereus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Selenicereus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est facile à très difficile selon les espèces. La reproduction se fait par bouturage de tiges. La culture par semis est plus délicate.
 Les selenicereus ont besoin de place, de chaleur (hiver entre 10 et 13 °C) et d'une humidité naturelle ambiante (vaporisation). Le soleil direct est à éviter. 
@@ -620,34 +672,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Selenicereus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Selenicereus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pharmacopée
-Selenicereus grandiflorus est cultivé à grande échelle par l'industrie pharmaceutique pour en extraire un substitut de la digitaline (tonicardiaque).
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selenicereus grandiflorus est cultivé à grande échelle par l'industrie pharmaceutique pour en extraire un substitut de la digitaline (tonicardiaque).
 </t>
         </is>
       </c>
